--- a/scripts/correlation/metric_df/HPA_metrics.xlsx
+++ b/scripts/correlation/metric_df/HPA_metrics.xlsx
@@ -486,7 +486,7 @@
         <v>3.259627420534287</v>
       </c>
       <c r="E2" t="n">
-        <v>3.259627420534287</v>
+        <v>6.519254841068573</v>
       </c>
       <c r="F2" t="n">
         <v>4.08018098</v>
@@ -507,16 +507,16 @@
         <v>-0.146366857</v>
       </c>
       <c r="C3" t="n">
-        <v>2.763451974346288</v>
+        <v>2.404685849021959</v>
       </c>
       <c r="D3" t="n">
         <v>2.818270664579821</v>
       </c>
       <c r="E3" t="n">
-        <v>5.526903948692576</v>
+        <v>9.618743396087837</v>
       </c>
       <c r="F3" t="n">
-        <v>12.77492546254625</v>
+        <v>11.345950260026</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>3.9071821045</v>
       </c>
       <c r="C4" t="n">
-        <v>2.969947027950714</v>
+        <v>3.100933653441624</v>
       </c>
       <c r="D4" t="n">
         <v>3.231920278932534</v>
       </c>
       <c r="E4" t="n">
-        <v>5.939894055901428</v>
+        <v>12.4037346137665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2100608227489416</v>
+        <v>0.2594582041537492</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>-0.331947455</v>
       </c>
       <c r="C5" t="n">
-        <v>2.887457796186073</v>
+        <v>2.776610306141002</v>
       </c>
       <c r="D5" t="n">
         <v>3.138514975631664</v>
       </c>
       <c r="E5" t="n">
-        <v>8.662373388558221</v>
+        <v>16.65966183684601</v>
       </c>
       <c r="F5" t="n">
-        <v>8.626521096554098</v>
+        <v>8.057450972875062</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>-0.09547349249999999</v>
       </c>
       <c r="C6" t="n">
-        <v>2.780241602424201</v>
+        <v>1.887207619895781</v>
       </c>
       <c r="D6" t="n">
-        <v>3.183609109940719</v>
+        <v>2.292498113295104</v>
       </c>
       <c r="E6" t="n">
-        <v>8.340724807272604</v>
+        <v>11.32324571937469</v>
       </c>
       <c r="F6" t="n">
-        <v>11.63144592207446</v>
+        <v>11.37976213119429</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         <v>3.44879154250173</v>
       </c>
       <c r="E7" t="n">
-        <v>3.44879154250173</v>
+        <v>6.89758308500346</v>
       </c>
       <c r="F7" t="n">
         <v>1.458317243275673</v>
@@ -648,7 +648,7 @@
         <v>3.33805605649451</v>
       </c>
       <c r="E8" t="n">
-        <v>3.33805605649451</v>
+        <v>6.676112112989021</v>
       </c>
       <c r="F8" t="n">
         <v>3.478817633333334</v>
@@ -671,7 +671,7 @@
         <v>3.189582406391184</v>
       </c>
       <c r="E9" t="n">
-        <v>3.189582406391184</v>
+        <v>6.379164812782368</v>
       </c>
       <c r="F9" t="n">
         <v>0.3587028097190296</v>
@@ -698,7 +698,7 @@
         <v>3.334087954690345</v>
       </c>
       <c r="E10" t="n">
-        <v>6.391948496899093</v>
+        <v>12.78389699379819</v>
       </c>
       <c r="F10" t="n">
         <v>3.390134661533849</v>
@@ -719,16 +719,16 @@
         <v>-0.253830753</v>
       </c>
       <c r="C11" t="n">
-        <v>3.047593625273934</v>
+        <v>3.170742745588612</v>
       </c>
       <c r="D11" t="n">
         <v>3.293891865903291</v>
       </c>
       <c r="E11" t="n">
-        <v>6.095187250547868</v>
+        <v>12.68297098235445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4028484250000012</v>
+        <v>0.4881746375000009</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -746,16 +746,16 @@
         <v>-0.265525773</v>
       </c>
       <c r="C12" t="n">
-        <v>3.133500485295674</v>
+        <v>2.992270237290326</v>
       </c>
       <c r="D12" t="n">
         <v>3.321409580704815</v>
       </c>
       <c r="E12" t="n">
-        <v>6.267000970591349</v>
+        <v>11.9690809491613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7908976750000035</v>
+        <v>0.8715518625000036</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>3.515217195592089</v>
       </c>
       <c r="E13" t="n">
-        <v>3.515217195592089</v>
+        <v>7.030434391184178</v>
       </c>
       <c r="F13" t="n">
         <v>1.777919283071691</v>

--- a/scripts/correlation/metric_df/HPA_metrics.xlsx
+++ b/scripts/correlation/metric_df/HPA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.2004947985</v>
       </c>
       <c r="C2" t="n">
-        <v>3.259627420534287</v>
+        <v>1.629813710267143</v>
       </c>
       <c r="D2" t="n">
         <v>3.259627420534287</v>
       </c>
       <c r="E2" t="n">
-        <v>6.519254841068573</v>
+        <v>3.259627420534287</v>
       </c>
       <c r="F2" t="n">
-        <v>4.08018098</v>
+        <v>2.04009049</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         <v>-0.146366857</v>
       </c>
       <c r="C3" t="n">
-        <v>2.404685849021959</v>
+        <v>1.381725987173144</v>
       </c>
       <c r="D3" t="n">
         <v>2.818270664579821</v>
       </c>
       <c r="E3" t="n">
-        <v>9.618743396087837</v>
+        <v>5.526903948692576</v>
       </c>
       <c r="F3" t="n">
-        <v>11.345950260026</v>
+        <v>6.387462731273127</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>3.9071821045</v>
       </c>
       <c r="C4" t="n">
-        <v>3.100933653441624</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.231920278932534</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.4037346137665</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2594582041537492</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>-0.331947455</v>
       </c>
       <c r="C5" t="n">
-        <v>2.776610306141002</v>
+        <v>1.443728898093037</v>
       </c>
       <c r="D5" t="n">
         <v>3.138514975631664</v>
       </c>
       <c r="E5" t="n">
-        <v>16.65966183684601</v>
+        <v>8.662373388558221</v>
       </c>
       <c r="F5" t="n">
-        <v>8.057450972875062</v>
+        <v>4.313260548277049</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>-0.09547349249999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.887207619895781</v>
+        <v>1.390120801212101</v>
       </c>
       <c r="D6" t="n">
-        <v>2.292498113295104</v>
+        <v>3.183609109940719</v>
       </c>
       <c r="E6" t="n">
-        <v>11.32324571937469</v>
+        <v>8.340724807272604</v>
       </c>
       <c r="F6" t="n">
-        <v>11.37976213119429</v>
+        <v>5.815722961037232</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         <v>-0.1320118905</v>
       </c>
       <c r="C7" t="n">
-        <v>3.44879154250173</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.44879154250173</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.89758308500346</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.458317243275673</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,18 +642,22 @@
         <v>-0.2097037955</v>
       </c>
       <c r="C8" t="n">
-        <v>3.33805605649451</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.33805605649451</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.676112112989021</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.478817633333334</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -665,16 +669,16 @@
         <v>0.01888831399999999</v>
       </c>
       <c r="C9" t="n">
-        <v>3.189582406391184</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.189582406391184</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.379164812782368</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3587028097190296</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -692,16 +696,16 @@
         <v>-0.2784481965</v>
       </c>
       <c r="C10" t="n">
-        <v>3.195974248449546</v>
+        <v>0.8335219886725862</v>
       </c>
       <c r="D10" t="n">
         <v>3.334087954690345</v>
       </c>
       <c r="E10" t="n">
-        <v>12.78389699379819</v>
+        <v>3.334087954690345</v>
       </c>
       <c r="F10" t="n">
-        <v>3.390134661533849</v>
+        <v>0.952300540779256</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -719,16 +723,16 @@
         <v>-0.253830753</v>
       </c>
       <c r="C11" t="n">
-        <v>3.170742745588612</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.293891865903291</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>12.68297098235445</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4881746375000009</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -746,16 +750,16 @@
         <v>-0.265525773</v>
       </c>
       <c r="C12" t="n">
-        <v>2.992270237290326</v>
+        <v>0.7363978474716336</v>
       </c>
       <c r="D12" t="n">
-        <v>3.321409580704815</v>
+        <v>2.945591389886534</v>
       </c>
       <c r="E12" t="n">
-        <v>11.9690809491613</v>
+        <v>2.945591389886534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8715518625000036</v>
+        <v>0.1432853375000008</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -773,16 +777,16 @@
         <v>-0.2752799095</v>
       </c>
       <c r="C13" t="n">
-        <v>3.515217195592089</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.515217195592089</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.030434391184178</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.777919283071691</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/HPA_metrics.xlsx
+++ b/scripts/correlation/metric_df/HPA_metrics.xlsx
@@ -480,7 +480,7 @@
         <v>-0.2004947985</v>
       </c>
       <c r="C2" t="n">
-        <v>1.629813710267143</v>
+        <v>3.259627420534287</v>
       </c>
       <c r="D2" t="n">
         <v>3.259627420534287</v>
@@ -489,7 +489,7 @@
         <v>3.259627420534287</v>
       </c>
       <c r="F2" t="n">
-        <v>2.04009049</v>
+        <v>4.08018098</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>-0.146366857</v>
       </c>
       <c r="C3" t="n">
-        <v>1.381725987173144</v>
+        <v>2.763451974346288</v>
       </c>
       <c r="D3" t="n">
         <v>2.818270664579821</v>
@@ -516,7 +516,7 @@
         <v>5.526903948692576</v>
       </c>
       <c r="F3" t="n">
-        <v>6.387462731273127</v>
+        <v>12.77492546254625</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>3.9071821045</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.969947027950714</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.231920278932534</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.939894055901428</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.2100608227489416</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>-0.331947455</v>
       </c>
       <c r="C5" t="n">
-        <v>1.443728898093037</v>
+        <v>2.887457796186073</v>
       </c>
       <c r="D5" t="n">
         <v>3.138514975631664</v>
@@ -570,7 +570,7 @@
         <v>8.662373388558221</v>
       </c>
       <c r="F5" t="n">
-        <v>4.313260548277049</v>
+        <v>8.626521096554098</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>-0.09547349249999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.390120801212101</v>
+        <v>2.780241602424201</v>
       </c>
       <c r="D6" t="n">
         <v>3.183609109940719</v>
@@ -597,7 +597,7 @@
         <v>8.340724807272604</v>
       </c>
       <c r="F6" t="n">
-        <v>5.815722961037232</v>
+        <v>11.63144592207446</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         <v>-0.1320118905</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.458317243275673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,16 +642,16 @@
         <v>-0.2097037955</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.478817633333334</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>0.01888831399999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.3587028097190296</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         <v>-0.2784481965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8335219886725862</v>
+        <v>3.195974248449546</v>
       </c>
       <c r="D10" t="n">
         <v>3.334087954690345</v>
       </c>
       <c r="E10" t="n">
-        <v>3.334087954690345</v>
+        <v>6.391948496899093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.952300540779256</v>
+        <v>3.390134661533849</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
         <v>-0.253830753</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.047593625273934</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.293891865903291</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.095187250547868</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.4028484250000012</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -750,16 +750,16 @@
         <v>-0.265525773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7363978474716336</v>
+        <v>3.133500485295674</v>
       </c>
       <c r="D12" t="n">
-        <v>2.945591389886534</v>
+        <v>3.321409580704815</v>
       </c>
       <c r="E12" t="n">
-        <v>2.945591389886534</v>
+        <v>6.267000970591349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1432853375000008</v>
+        <v>0.7908976750000035</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>-0.2752799095</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.515217195592089</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.515217195592089</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.515217195592089</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.777919283071691</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/HPA_metrics.xlsx
+++ b/scripts/correlation/metric_df/HPA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -473,25 +488,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2004947985</v>
+        <v>2.941023463834514</v>
       </c>
       <c r="C2" t="n">
-        <v>3.259627420534287</v>
+        <v>3.13128115550573</v>
       </c>
       <c r="D2" t="n">
-        <v>3.259627420534287</v>
+        <v>0.748175182481752</v>
       </c>
       <c r="E2" t="n">
-        <v>3.259627420534287</v>
+        <v>0.491</v>
       </c>
       <c r="F2" t="n">
-        <v>4.08018098</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -500,52 +530,82 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.146366857</v>
+        <v>3.350821371308619</v>
       </c>
       <c r="C3" t="n">
-        <v>2.763451974346288</v>
+        <v>2.973940888302121</v>
       </c>
       <c r="D3" t="n">
-        <v>2.818270664579821</v>
+        <v>14.89044904490449</v>
       </c>
       <c r="E3" t="n">
-        <v>5.526903948692576</v>
+        <v>0.423</v>
       </c>
       <c r="F3" t="n">
-        <v>12.77492546254625</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(a1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.9071821045</v>
+        <v>2.402660585573071</v>
       </c>
       <c r="C4" t="n">
-        <v>2.969947027950714</v>
+        <v>3.119731842208471</v>
       </c>
       <c r="D4" t="n">
-        <v>3.231920278932534</v>
+        <v>3.056656834316568</v>
       </c>
       <c r="E4" t="n">
-        <v>5.939894055901428</v>
+        <v>0.448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2100608227489416</v>
+        <v>3.41</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -554,133 +614,208 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.331947455</v>
+        <v>2.123484087272886</v>
       </c>
       <c r="C5" t="n">
-        <v>2.887457796186073</v>
+        <v>3.168148491175445</v>
       </c>
       <c r="D5" t="n">
-        <v>3.138514975631664</v>
+        <v>4.131773645270947</v>
       </c>
       <c r="E5" t="n">
-        <v>8.662373388558221</v>
+        <v>0.44</v>
       </c>
       <c r="F5" t="n">
-        <v>8.626521096554098</v>
+        <v>10.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09547349249999999</v>
+        <v>-0.2004947984197432</v>
       </c>
       <c r="C6" t="n">
-        <v>2.780241602424201</v>
+        <v>3.250676327925827</v>
       </c>
       <c r="D6" t="n">
-        <v>3.183609109940719</v>
+        <v>3.30334</v>
       </c>
       <c r="E6" t="n">
-        <v>8.340724807272604</v>
+        <v>0.433</v>
       </c>
       <c r="F6" t="n">
-        <v>11.63144592207446</v>
+        <v>12.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Fuc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1320118905</v>
+        <v>-0.1463668574055763</v>
       </c>
       <c r="C7" t="n">
-        <v>3.44879154250173</v>
+        <v>2.708633284112756</v>
       </c>
       <c r="D7" t="n">
-        <v>3.44879154250173</v>
+        <v>14.8989098909891</v>
       </c>
       <c r="E7" t="n">
-        <v>3.44879154250173</v>
+        <v>0.357</v>
       </c>
       <c r="F7" t="n">
-        <v>1.458317243275673</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['B2,5']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2097037955</v>
+        <v>-0.2758897771748474</v>
       </c>
       <c r="C8" t="n">
-        <v>3.33805605649451</v>
+        <v>3.126238794575282</v>
       </c>
       <c r="D8" t="n">
-        <v>3.33805605649451</v>
+        <v>21.40945714285714</v>
       </c>
       <c r="E8" t="n">
-        <v>3.33805605649451</v>
+        <v>0.398</v>
       </c>
       <c r="F8" t="n">
-        <v>3.478817633333334</v>
+        <v>12.82</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)GalNAc</t>
+          <t>GalNAc(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01888831399999999</v>
+        <v>3.90718210459456</v>
       </c>
       <c r="C9" t="n">
-        <v>3.189582406391184</v>
+        <v>3.224058460398829</v>
       </c>
       <c r="D9" t="n">
-        <v>3.189582406391184</v>
+        <v>0.512984631796513</v>
       </c>
       <c r="E9" t="n">
-        <v>3.189582406391184</v>
+        <v>0.479</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3587028097190296</v>
+        <v>8.49</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -689,52 +824,82 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2784481965</v>
+        <v>-0.3319474550886918</v>
       </c>
       <c r="C10" t="n">
-        <v>3.195974248449546</v>
+        <v>2.918360420020854</v>
       </c>
       <c r="D10" t="n">
-        <v>3.334087954690345</v>
+        <v>9.114328099476616</v>
       </c>
       <c r="E10" t="n">
-        <v>6.391948496899093</v>
+        <v>0.4345</v>
       </c>
       <c r="F10" t="n">
-        <v>3.390134661533849</v>
+        <v>7.77</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.253830753</v>
+        <v>-0.09547349264124011</v>
       </c>
       <c r="C11" t="n">
-        <v>3.047593625273934</v>
+        <v>3.02411334698875</v>
       </c>
       <c r="D11" t="n">
-        <v>3.293891865903291</v>
+        <v>13.97419146974191</v>
       </c>
       <c r="E11" t="n">
-        <v>6.095187250547868</v>
+        <v>0.4395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4028484250000012</v>
+        <v>7.93</v>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -743,52 +908,334 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-3)Fuc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.265525773</v>
+        <v>-0.1320118903245353</v>
       </c>
       <c r="C12" t="n">
-        <v>3.133500485295674</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="D12" t="n">
-        <v>3.321409580704815</v>
+        <v>1.753549645035496</v>
       </c>
       <c r="E12" t="n">
-        <v>6.267000970591349</v>
+        <v>0.458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7908976750000035</v>
+        <v>4.28</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2097037951304326</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.33805605649451</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.397433333333334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.282287493051551</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.384846311904607</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.510950000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01888831395230112</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.189582406391184</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3374462553744627</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.278448196055304</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.187208375547809</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.723719294737193</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4705</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.505000000000001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-3)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2538307531140521</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.293891865903291</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7885</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.265525773075046</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.321409580704815</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-0.2752799095</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.515217195592089</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.515217195592089</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.515217195592089</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.777919283071691</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="B19" t="n">
+        <v>-0.2752799096364064</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.505348698382484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.00929907009299</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>O</t>
         </is>
